--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T17:38:26+00:00</t>
+    <t>2022-05-18T18:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:03:18+00:00</t>
+    <t>2022-05-18T18:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:24:05+00:00</t>
+    <t>2022-05-18T18:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:38:41+00:00</t>
+    <t>2022-05-18T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:56:15+00:00</t>
+    <t>2022-05-18T19:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:09:53+00:00</t>
+    <t>2022-05-18T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:16:13+00:00</t>
+    <t>2022-05-18T19:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:30:31+00:00</t>
+    <t>2022-05-18T19:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:33:24+00:00</t>
+    <t>2022-05-19T03:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:16:26+00:00</t>
+    <t>2022-05-19T05:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:06:22+00:00</t>
+    <t>2022-05-19T05:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:30:54+00:00</t>
+    <t>2022-07-20T15:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:49:15+00:00</t>
+    <t>2022-07-20T15:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:55:58+00:00</t>
+    <t>2022-07-26T14:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T14:00:32+00:00</t>
+    <t>2022-11-10T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T16:33:20+00:00</t>
+    <t>2022-11-13T16:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T16:06:14+00:00</t>
+    <t>2022-11-16T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:22:04+00:00</t>
+    <t>2022-11-16T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:33:27+00:00</t>
+    <t>2022-12-09T19:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T19:20:55+00:00</t>
+    <t>2022-12-09T21:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T21:34:05+00:00</t>
+    <t>2023-01-23T16:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:13:19+00:00</t>
+    <t>2023-01-27T17:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T17:12:17+00:00</t>
+    <t>2023-01-30T21:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:30:05+00:00</t>
+    <t>2023-02-09T16:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T16:19:35+00:00</t>
+    <t>2023-02-14T19:15:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T19:15:12+00:00</t>
+    <t>2023-02-20T18:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:51:53+00:00</t>
+    <t>2023-02-20T18:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:59:33+00:00</t>
+    <t>2023-02-20T19:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T19:32:51+00:00</t>
+    <t>2023-02-21T11:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:59:56+00:00</t>
+    <t>2023-02-21T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T12:43:59+00:00</t>
+    <t>2023-02-28T17:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T17:04:12+00:00</t>
+    <t>2023-03-09T16:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:02:20+00:00</t>
+    <t>2023-03-09T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:05:10+00:00</t>
+    <t>2023-03-09T21:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T21:27:23+00:00</t>
+    <t>2023-03-10T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:30:38+00:00</t>
+    <t>2023-03-10T16:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:37:58+00:00</t>
+    <t>2023-03-10T16:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:43:52+00:00</t>
+    <t>2023-03-16T01:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:14:24+00:00</t>
+    <t>2023-03-16T01:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:23:31+00:00</t>
+    <t>2023-03-21T11:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T11:43:18+00:00</t>
+    <t>2023-04-04T14:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T14:29:08+00:00</t>
+    <t>2023-05-30T18:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T18:28:01+00:00</t>
+    <t>2023-07-19T14:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:01:19+00:00</t>
+    <t>2023-08-02T16:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:54:26+00:00</t>
+    <t>2023-10-18T17:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:21:54+00:00</t>
+    <t>2023-11-09T20:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,10 +90,19 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>CNV0</t>
+  </si>
+  <si>
+    <t>CNVs not explaining phenotypes</t>
+  </si>
+  <si>
+    <t>CNV1</t>
+  </si>
+  <si>
+    <t>CNVs explaining phenotypes</t>
   </si>
   <si>
     <t/>
@@ -361,7 +370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -375,26 +384,40 @@
       <c r="A1" t="s" s="1">
         <v>25</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,13 +96,13 @@
     <t>CNV0</t>
   </si>
   <si>
-    <t>CNVs not explaining phenotypes</t>
+    <t>CNV that does not explain the phenotype</t>
   </si>
   <si>
     <t>CNV1</t>
   </si>
   <si>
-    <t>CNVs explaining phenotypes</t>
+    <t>CNV that does explain the phenotype</t>
   </si>
   <si>
     <t/>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-cgh-abnormalities.xlsx
+++ b/ig/ValueSet-cgh-abnormalities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
